--- a/reference/bracket_2022_template.xlsx
+++ b/reference/bracket_2022_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suncor-my.sharepoint.com/personal/caharris_suncor_com/Documents/caharris/hockey pools/2022 Playoffs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caharris\hockey\pools\playoffs_2022\nhl_playoff_challenge2022\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="11_27BD172B80C945F9A12B332576A0B26F873B160A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{83C8D812-D92C-45CB-B523-B33EC69E0670}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A02E12-DF48-4A78-9289-FB29E493C020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>1st Round</t>
   </si>
@@ -746,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -817,13 +817,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -865,7 +937,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,93 +954,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,7 +971,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1016,433 +1010,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -1797,7 +1364,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,20 +1377,20 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="62" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1837,8 +1404,8 @@
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1851,59 +1418,63 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="B3" s="31" t="str">
+        <f>teams!A2</f>
+        <v>COL</v>
+      </c>
+      <c r="C3" s="35"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="36" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="26"/>
-      <c r="I3" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="37" t="str">
+        <f>teams!A10</f>
+        <v>FLA</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="50" t="s">
-        <v>6</v>
+      <c r="A4" s="63"/>
+      <c r="B4" s="31" t="str">
+        <f>teams!A3</f>
+        <v>NSH</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="33"/>
+      <c r="I4" s="37" t="str">
+        <f>teams!A11</f>
+        <v>WSH</v>
+      </c>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="5"/>
       <c r="I5" s="24"/>
       <c r="J5" s="18"/>
@@ -1912,12 +1483,12 @@
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="35" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="59" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="7"/>
@@ -1925,65 +1496,70 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="32" t="str">
+        <f>teams!A4</f>
+        <v>MIN</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="38" t="str">
+        <f>teams!A12</f>
+        <v>TOR</v>
+      </c>
+      <c r="J7" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="52" t="s">
-        <v>29</v>
+      <c r="A8" s="63"/>
+      <c r="B8" s="32" t="str">
+        <f>teams!A5</f>
+        <v>STL</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="31"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="5"/>
       <c r="H8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="33"/>
+      <c r="I8" s="38" t="str">
+        <f>teams!A13</f>
+        <v>TBL</v>
+      </c>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="57"/>
+      <c r="B10" s="32" t="str">
+        <f>teams!A6</f>
+        <v>CGY</v>
+      </c>
+      <c r="C10" s="35"/>
       <c r="D10" s="4"/>
       <c r="E10" s="20" t="s">
         <v>40</v>
@@ -1993,45 +1569,48 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="33" t="s">
+      <c r="I10" s="38" t="str">
+        <f>teams!A14</f>
+        <v>CAR</v>
+      </c>
+      <c r="J10" s="57" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="52" t="s">
-        <v>22</v>
+      <c r="A11" s="63"/>
+      <c r="B11" s="33" t="str">
+        <f>teams!A7</f>
+        <v>DAL</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="47" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="33"/>
+      <c r="I11" s="38" t="str">
+        <f>teams!A15</f>
+        <v>BOS</v>
+      </c>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="3"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="78" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="46"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="5"/>
       <c r="I12" s="24"/>
       <c r="J12" s="18"/>
@@ -2040,12 +1619,12 @@
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="37" t="s">
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="61" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="7"/>
@@ -2053,33 +1632,36 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="76" t="s">
+      <c r="B14" s="32" t="str">
+        <f>teams!A8</f>
+        <v>EDM</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="33" t="s">
+      <c r="I14" s="38" t="str">
+        <f>teams!A16</f>
+        <v>NYR</v>
+      </c>
+      <c r="J14" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="53" t="s">
-        <v>23</v>
+      <c r="A15" s="64"/>
+      <c r="B15" s="34" t="str">
+        <f>teams!A9</f>
+        <v>LAK</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>35</v>
@@ -2091,10 +1673,11 @@
       <c r="H15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="34"/>
+      <c r="I15" s="38" t="str">
+        <f>teams!A17</f>
+        <v>PIT</v>
+      </c>
+      <c r="J15" s="58"/>
     </row>
     <row r="17" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
@@ -2109,10 +1692,10 @@
       <c r="D17" s="25">
         <v>8</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="44">
         <v>17</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="25">
         <v>8</v>
       </c>
@@ -2303,236 +1886,235 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="73"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="73">
+      <c r="A2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="39">
         <f>picks!C3</f>
         <v>0</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="39">
         <f>picks!D4</f>
         <v>0</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="39">
         <f>picks!E8</f>
         <v>0</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="39">
         <f>picks!E5</f>
         <v>0</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="39">
         <f>picks!C7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="39">
         <f>picks!D11</f>
         <v>0</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="39">
         <f>picks!F8</f>
         <v>0</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="73">
+      <c r="A4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="39">
         <f>picks!C10</f>
         <v>0</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="39">
         <f>picks!G4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="73">
+      <c r="A5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="39">
         <f>picks!C14</f>
         <v>0</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="39">
         <f>picks!G11</f>
         <v>0</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="73">
+      <c r="A6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="39">
         <f>picks!H3</f>
         <v>0</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="39">
         <f>picks!H7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="73">
+      <c r="A8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="39">
         <f>picks!H10</f>
         <v>0</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="73">
+      <c r="A9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="39">
         <f>picks!H14</f>
         <v>0</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eZ9reIeMf4X6R/ervcwauSp56hG2elo27zvNhqpfoW4arzJPlsUA1VpQDIn0YM/ifOd24sI19cRnCbMTogeFOQ==" saltValue="r3/wsOaurJwk4sxKbIzYhw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reference/bracket_2022_template.xlsx
+++ b/reference/bracket_2022_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caharris\hockey\pools\playoffs_2022\nhl_playoff_challenge2022\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A02E12-DF48-4A78-9289-FB29E493C020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B633D98C-85A7-4A0E-8E7A-D3ECBF265267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="picks" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>1st Round</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>Enter tie breaker here</t>
+  </si>
+  <si>
+    <t>tie_breaker</t>
+  </si>
+  <si>
+    <t>entrant_name</t>
   </si>
 </sst>
 </file>
@@ -859,13 +865,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -874,19 +913,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,61 +952,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1363,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1377,20 +1383,20 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="65" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1404,8 +1410,8 @@
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1424,7 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="31" t="str">
@@ -1439,12 +1445,12 @@
         <f>teams!A10</f>
         <v>FLA</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="69" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="31" t="str">
         <f>teams!A3</f>
         <v>NSH</v>
@@ -1452,12 +1458,12 @@
       <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="47"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="27" t="s">
         <v>36</v>
       </c>
@@ -1465,16 +1471,16 @@
         <f>teams!A11</f>
         <v>WSH</v>
       </c>
-      <c r="J4" s="57"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="48"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="5"/>
       <c r="I5" s="24"/>
       <c r="J5" s="18"/>
@@ -1483,12 +1489,12 @@
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="59" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="71" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="7"/>
@@ -1496,7 +1502,7 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="32" t="str">
@@ -1504,21 +1510,21 @@
         <v>MIN</v>
       </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="61"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="40"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="60"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="26"/>
       <c r="I7" s="38" t="str">
         <f>teams!A12</f>
         <v>TOR</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="69" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="32" t="str">
         <f>teams!A5</f>
         <v>STL</v>
@@ -1527,8 +1533,8 @@
         <v>33</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="47"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="5"/>
       <c r="H8" s="27" t="s">
         <v>37</v>
@@ -1537,22 +1543,22 @@
         <f>teams!A13</f>
         <v>TBL</v>
       </c>
-      <c r="J8" s="57"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="48"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="32" t="str">
@@ -1573,12 +1579,12 @@
         <f>teams!A14</f>
         <v>CAR</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="33" t="str">
         <f>teams!A7</f>
         <v>DAL</v>
@@ -1586,12 +1592,12 @@
       <c r="C11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="74" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="27" t="s">
         <v>38</v>
       </c>
@@ -1599,18 +1605,18 @@
         <f>teams!A15</f>
         <v>BOS</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="3"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="76" t="s">
+      <c r="D12" s="74"/>
+      <c r="E12" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="48"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="5"/>
       <c r="I12" s="24"/>
       <c r="J12" s="18"/>
@@ -1619,12 +1625,12 @@
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="61" t="s">
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="52" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="7"/>
@@ -1632,7 +1638,7 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="32" t="str">
@@ -1640,25 +1646,25 @@
         <v>EDM</v>
       </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="62"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="42" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="62"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="26"/>
       <c r="I14" s="38" t="str">
         <f>teams!A16</f>
         <v>NYR</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="69" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="34" t="str">
         <f>teams!A9</f>
         <v>LAK</v>
@@ -1677,7 +1683,7 @@
         <f>teams!A17</f>
         <v>PIT</v>
       </c>
-      <c r="J15" s="58"/>
+      <c r="J15" s="70"/>
     </row>
     <row r="17" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
@@ -1692,10 +1698,10 @@
       <c r="D17" s="25">
         <v>8</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="73">
         <v>17</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="25">
         <v>8</v>
       </c>
@@ -1714,6 +1720,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
@@ -1726,20 +1746,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D5">
     <cfRule type="expression" dxfId="6" priority="8">
@@ -1883,15 +1889,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E580B3A8-4A39-495A-9669-9A1352DE513B}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>50</v>
       </c>
@@ -1907,9 +1913,14 @@
       <c r="E1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>19</v>
       </c>
@@ -1929,9 +1940,16 @@
         <f>picks!E5</f>
         <v>0</v>
       </c>
-      <c r="F2" s="39"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="39" t="str">
+        <f>picks!E12</f>
+        <v>Enter tie breaker here</v>
+      </c>
+      <c r="G2" t="str">
+        <f>picks!F14</f>
+        <v>e.g. Cameron Harris</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +1968,7 @@
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
@@ -1966,7 +1984,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>23</v>
       </c>
@@ -1982,7 +2000,7 @@
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>21</v>
       </c>
@@ -1995,7 +2013,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>22</v>
       </c>
@@ -2008,7 +2026,7 @@
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>28</v>
       </c>
@@ -2021,7 +2039,7 @@
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>29</v>
       </c>
@@ -2034,7 +2052,7 @@
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>26</v>
       </c>
@@ -2044,7 +2062,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>11</v>
       </c>
@@ -2054,7 +2072,7 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
@@ -2064,7 +2082,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>20</v>
       </c>
@@ -2074,7 +2092,7 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>24</v>
       </c>
@@ -2084,7 +2102,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>17</v>
       </c>
@@ -2094,7 +2112,7 @@
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>27</v>
       </c>
